--- a/data/251126_O2_H2_Experiment_Overview.xlsx
+++ b/data/251126_O2_H2_Experiment_Overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacob/Documents/Water_Splitting/Projects/Simultaneous_O2_H2_Detection/simultaneous_detection/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FD2CCB-96E7-E94D-B669-C4ED032F3F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0D73A2-088E-3447-95FA-9DFBD1713CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="1280" windowWidth="26640" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="2180" windowWidth="26640" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="167">
   <si>
     <t>Experiment</t>
   </si>
@@ -528,6 +528,12 @@
   </si>
   <si>
     <t>Different catalyst batch, different temperature, slighly different irradiance</t>
+  </si>
+  <si>
+    <t>Gas phase volume [mL]</t>
+  </si>
+  <si>
+    <t>Liquid phase volume [mL]</t>
   </si>
 </sst>
 </file>
@@ -815,10 +821,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J15" zoomScale="125" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -833,9 +842,11 @@
     <col min="10" max="10" width="25.140625" customWidth="1"/>
     <col min="11" max="11" width="27.42578125" customWidth="1"/>
     <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,17 +887,23 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
@@ -925,15 +942,21 @@
       <c r="M2">
         <v>20</v>
       </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2">
+        <v>58</v>
+      </c>
+      <c r="O2">
+        <v>25</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
@@ -972,15 +995,21 @@
       <c r="M3">
         <v>20</v>
       </c>
-      <c r="N3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="N3">
+        <v>58</v>
+      </c>
+      <c r="O3">
+        <v>25</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
@@ -1019,18 +1048,24 @@
       <c r="M4">
         <v>20</v>
       </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="N4">
+        <v>58</v>
+      </c>
+      <c r="O4">
+        <v>25</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
         <v>123</v>
       </c>
-      <c r="P4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
@@ -1069,18 +1104,24 @@
       <c r="M5">
         <v>20</v>
       </c>
-      <c r="N5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="N5">
+        <v>58</v>
+      </c>
+      <c r="O5">
+        <v>25</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
         <v>124</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
@@ -1119,18 +1160,24 @@
       <c r="M6">
         <v>20</v>
       </c>
-      <c r="N6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="N6">
+        <v>58</v>
+      </c>
+      <c r="O6">
+        <v>25</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
         <v>125</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B7" t="s">
@@ -1169,15 +1216,21 @@
       <c r="M7">
         <v>20</v>
       </c>
-      <c r="N7" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="N7">
+        <v>58</v>
+      </c>
+      <c r="O7">
+        <v>25</v>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B8" t="s">
@@ -1216,18 +1269,24 @@
       <c r="M8">
         <v>20</v>
       </c>
-      <c r="N8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="N8">
+        <v>58</v>
+      </c>
+      <c r="O8">
+        <v>25</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
         <v>124</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B9" t="s">
@@ -1266,18 +1325,24 @@
       <c r="M9">
         <v>20</v>
       </c>
-      <c r="N9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="N9">
+        <v>58</v>
+      </c>
+      <c r="O9">
+        <v>25</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
         <v>125</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
@@ -1316,18 +1381,24 @@
       <c r="M10">
         <v>20</v>
       </c>
-      <c r="N10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="N10">
+        <v>58</v>
+      </c>
+      <c r="O10">
+        <v>25</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
         <v>123</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B11" t="s">
@@ -1366,18 +1437,24 @@
       <c r="M11">
         <v>20</v>
       </c>
-      <c r="N11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="N11">
+        <v>58</v>
+      </c>
+      <c r="O11">
+        <v>25</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
         <v>125</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
+    <row r="12" spans="1:18">
+      <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B12" t="s">
@@ -1416,15 +1493,21 @@
       <c r="M12">
         <v>30</v>
       </c>
-      <c r="N12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="N12">
+        <v>58</v>
+      </c>
+      <c r="O12">
+        <v>25</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
+    <row r="13" spans="1:18">
+      <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B13" t="s">
@@ -1463,18 +1546,24 @@
       <c r="M13">
         <v>20</v>
       </c>
-      <c r="N13" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="N13">
+        <v>58</v>
+      </c>
+      <c r="O13">
+        <v>25</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
         <v>122</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
+    <row r="14" spans="1:18">
+      <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B14" t="s">
@@ -1513,18 +1602,24 @@
       <c r="M14">
         <v>20</v>
       </c>
-      <c r="N14" t="b">
-        <v>1</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="N14">
+        <v>58</v>
+      </c>
+      <c r="O14">
+        <v>25</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
         <v>121</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
+    <row r="15" spans="1:18">
+      <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B15" t="s">
@@ -1563,18 +1658,24 @@
       <c r="M15">
         <v>20</v>
       </c>
-      <c r="N15" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="N15">
+        <v>58</v>
+      </c>
+      <c r="O15">
+        <v>25</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
         <v>126</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
+    <row r="16" spans="1:18">
+      <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B16" t="s">
@@ -1613,18 +1714,24 @@
       <c r="M16">
         <v>30</v>
       </c>
-      <c r="N16" t="b">
-        <v>1</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="N16">
+        <v>58</v>
+      </c>
+      <c r="O16">
+        <v>25</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
         <v>121</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" t="s">
+    <row r="17" spans="1:18">
+      <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B17" t="s">
@@ -1663,18 +1770,24 @@
       <c r="M17">
         <v>20</v>
       </c>
-      <c r="N17" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="N17">
+        <v>58</v>
+      </c>
+      <c r="O17">
+        <v>25</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
         <v>122</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18" t="s">
+    <row r="18" spans="1:18">
+      <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B18" t="s">
@@ -1713,18 +1826,24 @@
       <c r="M18">
         <v>20</v>
       </c>
-      <c r="N18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="N18">
+        <v>58</v>
+      </c>
+      <c r="O18">
+        <v>25</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
         <v>123</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" t="s">
+    <row r="19" spans="1:18">
+      <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B19" t="s">
@@ -1763,18 +1882,24 @@
       <c r="M19">
         <v>20</v>
       </c>
-      <c r="N19" t="b">
-        <v>0</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="N19">
+        <v>58</v>
+      </c>
+      <c r="O19">
+        <v>25</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
         <v>124</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" t="s">
+    <row r="20" spans="1:18">
+      <c r="A20" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B20" t="s">
@@ -1813,15 +1938,21 @@
       <c r="M20">
         <v>20</v>
       </c>
-      <c r="N20" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="N20">
+        <v>58</v>
+      </c>
+      <c r="O20">
+        <v>25</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" t="s">
+    <row r="21" spans="1:18">
+      <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B21" t="s">
@@ -1860,15 +1991,21 @@
       <c r="M21">
         <v>20</v>
       </c>
-      <c r="N21" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="N21">
+        <v>58</v>
+      </c>
+      <c r="O21">
+        <v>25</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" t="s">
+    <row r="22" spans="1:18">
+      <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B22" t="s">
@@ -1907,18 +2044,24 @@
       <c r="M22">
         <v>20</v>
       </c>
-      <c r="N22" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="N22">
+        <v>58</v>
+      </c>
+      <c r="O22">
+        <v>25</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
         <v>124</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" t="s">
+    <row r="23" spans="1:18">
+      <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B23" t="s">
@@ -1957,18 +2100,24 @@
       <c r="M23">
         <v>20</v>
       </c>
-      <c r="N23" t="b">
-        <v>1</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="N23">
+        <v>58</v>
+      </c>
+      <c r="O23">
+        <v>25</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
         <v>125</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" t="s">
+    <row r="24" spans="1:18">
+      <c r="A24" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B24" t="s">
@@ -2007,18 +2156,24 @@
       <c r="M24">
         <v>20</v>
       </c>
-      <c r="N24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="N24">
+        <v>58</v>
+      </c>
+      <c r="O24">
+        <v>25</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
         <v>123</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" t="s">
+    <row r="25" spans="1:18">
+      <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B25" t="s">
@@ -2057,18 +2212,24 @@
       <c r="M25">
         <v>20</v>
       </c>
-      <c r="N25" t="b">
-        <v>1</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="N25">
+        <v>58</v>
+      </c>
+      <c r="O25">
+        <v>25</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
         <v>125</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" t="s">
+    <row r="26" spans="1:18">
+      <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B26" t="s">
@@ -2107,18 +2268,24 @@
       <c r="M26">
         <v>10</v>
       </c>
-      <c r="N26" t="b">
-        <v>1</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="N26">
+        <v>58</v>
+      </c>
+      <c r="O26">
+        <v>25</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
         <v>124</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27" t="s">
+    <row r="27" spans="1:18">
+      <c r="A27" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B27" t="s">
@@ -2157,18 +2324,24 @@
       <c r="M27">
         <v>20</v>
       </c>
-      <c r="N27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="N27">
+        <v>58</v>
+      </c>
+      <c r="O27">
+        <v>25</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
         <v>122</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28" t="s">
+    <row r="28" spans="1:18">
+      <c r="A28" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B28" t="s">
@@ -2207,18 +2380,24 @@
       <c r="M28">
         <v>20</v>
       </c>
-      <c r="N28" t="b">
-        <v>1</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="N28">
+        <v>58</v>
+      </c>
+      <c r="O28">
+        <v>25</v>
+      </c>
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
         <v>121</v>
       </c>
-      <c r="P28" t="s">
+      <c r="R28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
-      <c r="A29" t="s">
+    <row r="29" spans="1:18">
+      <c r="A29" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B29" t="s">
@@ -2257,18 +2436,24 @@
       <c r="M29">
         <v>20</v>
       </c>
-      <c r="N29" t="b">
-        <v>1</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="N29">
+        <v>58</v>
+      </c>
+      <c r="O29">
+        <v>25</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s">
         <v>126</v>
       </c>
-      <c r="P29" t="s">
+      <c r="R29" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
-      <c r="A30" t="s">
+    <row r="30" spans="1:18">
+      <c r="A30" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B30" t="s">
@@ -2307,18 +2492,24 @@
       <c r="M30">
         <v>20</v>
       </c>
-      <c r="N30" t="b">
-        <v>1</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="N30">
+        <v>58</v>
+      </c>
+      <c r="O30">
+        <v>25</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s">
         <v>123</v>
       </c>
-      <c r="P30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" t="s">
+      <c r="R30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B31" t="s">
@@ -2357,15 +2548,21 @@
       <c r="M31">
         <v>20</v>
       </c>
-      <c r="N31" t="b">
-        <v>1</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="N31">
+        <v>58</v>
+      </c>
+      <c r="O31">
+        <v>25</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
-      <c r="A32" t="s">
+    <row r="32" spans="1:18">
+      <c r="A32" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B32" t="s">
@@ -2404,15 +2601,21 @@
       <c r="M32">
         <v>20</v>
       </c>
-      <c r="N32" t="b">
-        <v>1</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="N32">
+        <v>58</v>
+      </c>
+      <c r="O32">
+        <v>25</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
-      <c r="A33" t="s">
+    <row r="33" spans="1:18">
+      <c r="A33" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B33" t="s">
@@ -2451,18 +2654,24 @@
       <c r="M33">
         <v>10</v>
       </c>
-      <c r="N33" t="b">
-        <v>1</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="N33">
+        <v>58</v>
+      </c>
+      <c r="O33">
+        <v>25</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
         <v>123</v>
       </c>
-      <c r="P33" t="s">
+      <c r="R33" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
-      <c r="A34" t="s">
+    <row r="34" spans="1:18">
+      <c r="A34" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B34" t="s">
@@ -2501,18 +2710,24 @@
       <c r="M34">
         <v>10</v>
       </c>
-      <c r="N34" t="b">
-        <v>1</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="N34">
+        <v>58</v>
+      </c>
+      <c r="O34">
+        <v>25</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="s">
         <v>124</v>
       </c>
-      <c r="P34" t="s">
+      <c r="R34" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
-      <c r="A35" t="s">
+    <row r="35" spans="1:18">
+      <c r="A35" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B35" t="s">
@@ -2551,18 +2766,24 @@
       <c r="M35">
         <v>20</v>
       </c>
-      <c r="N35" t="b">
-        <v>0</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="N35">
+        <v>58</v>
+      </c>
+      <c r="O35">
+        <v>25</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s">
         <v>125</v>
       </c>
-      <c r="P35" t="s">
+      <c r="R35" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
-      <c r="A36" t="s">
+    <row r="36" spans="1:18">
+      <c r="A36" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B36" t="s">
@@ -2601,18 +2822,24 @@
       <c r="M36">
         <v>20</v>
       </c>
-      <c r="N36" t="b">
-        <v>0</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="N36">
+        <v>58</v>
+      </c>
+      <c r="O36">
+        <v>25</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
         <v>123</v>
       </c>
-      <c r="P36" t="s">
+      <c r="R36" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
-      <c r="A37" t="s">
+    <row r="37" spans="1:18">
+      <c r="A37" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B37" t="s">
@@ -2651,18 +2878,24 @@
       <c r="M37">
         <v>20</v>
       </c>
-      <c r="N37" t="b">
-        <v>1</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="N37">
+        <v>58</v>
+      </c>
+      <c r="O37">
+        <v>25</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s">
         <v>125</v>
       </c>
-      <c r="P37" t="s">
+      <c r="R37" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
-      <c r="A38" t="s">
+    <row r="38" spans="1:18">
+      <c r="A38" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B38" t="s">
@@ -2701,13 +2934,19 @@
       <c r="M38">
         <v>25</v>
       </c>
-      <c r="N38" t="b">
-        <v>1</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="N38">
+        <v>58</v>
+      </c>
+      <c r="O38">
+        <v>25</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="s">
         <v>124</v>
       </c>
-      <c r="P38" t="s">
+      <c r="R38" t="s">
         <v>164</v>
       </c>
     </row>
